--- a/data_quarter/zb/人民生活/农村居民人均支出情况.xlsx
+++ b/data_quarter/zb/人民生活/农村居民人均支出情况.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,11 +524,56 @@
           <t>农村居民人均食品烟酒支出_累计增长</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>农村居民人均交通通信支出</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>农村居民人均其他用品及服务支出</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>农村居民人均医疗保健支出</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>农村居民人均居住支出</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>农村居民人均教育文化娱乐支出</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>农村居民人均消费支出</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>农村居民人均生活用品及服务支出</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>农村居民人均衣着支出</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>农村居民人均食品烟酒支出</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -567,97 +612,178 @@
         <v>646.9</v>
       </c>
       <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>219.4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="W2" t="n">
+        <v>358.8</v>
+      </c>
+      <c r="X2" t="n">
+        <v>185</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1919.37</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>171.6</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>646.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>660.2</v>
+        <v>434.3</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>511.1</v>
+        <v>340.8</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>1085.6</v>
+        <v>712.4</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>535.5</v>
+        <v>329.5</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5149.55</v>
+        <v>3457.54</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>352.9</v>
+        <v>231.5</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>339.3</v>
+        <v>261.2</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>1550.1</v>
+        <v>1066.8</v>
       </c>
       <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="U3" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="V3" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="W3" t="n">
+        <v>353.6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1538.17</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>419.9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>434.3</v>
+        <v>660.2</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>340.8</v>
+        <v>511.1</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>712.4</v>
+        <v>1085.6</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>329.5</v>
+        <v>535.5</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>3457.54</v>
+        <v>5149.55</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>231.5</v>
+        <v>352.9</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>261.2</v>
+        <v>339.3</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>1066.8</v>
+        <v>1550.1</v>
       </c>
       <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="U4" t="n">
+        <v>34</v>
+      </c>
+      <c r="V4" t="n">
+        <v>170.3</v>
+      </c>
+      <c r="W4" t="n">
+        <v>373.1999999999999</v>
+      </c>
+      <c r="X4" t="n">
+        <v>206</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1692.01</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>121.4</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>78.10000000000002</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>483.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -696,11 +822,38 @@
         <v>2554.41</v>
       </c>
       <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>214.7199999999999</v>
+      </c>
+      <c r="U5" t="n">
+        <v>29.24000000000001</v>
+      </c>
+      <c r="V5" t="n">
+        <v>157.0699999999999</v>
+      </c>
+      <c r="W5" t="n">
+        <v>494.23</v>
+      </c>
+      <c r="X5" t="n">
+        <v>219.11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2335.599999999999</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>102.23</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>114.54</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1004.31</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -756,134 +909,215 @@
       </c>
       <c r="S6" t="n">
         <v>12.8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>254.43</v>
+      </c>
+      <c r="U6" t="n">
+        <v>57.27</v>
+      </c>
+      <c r="V6" t="n">
+        <v>175.79</v>
+      </c>
+      <c r="W6" t="n">
+        <v>402.81</v>
+      </c>
+      <c r="X6" t="n">
+        <v>222.26</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2174.69</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>146.37</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>185.85</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>729.91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>736.77</v>
+        <v>487.53</v>
       </c>
       <c r="C7" t="n">
-        <v>11.6</v>
+        <v>14.9</v>
       </c>
       <c r="D7" t="n">
-        <v>127.79</v>
+        <v>94.43000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>11.2</v>
+        <v>16.5</v>
       </c>
       <c r="F7" t="n">
-        <v>579.02</v>
+        <v>376.78</v>
       </c>
       <c r="G7" t="n">
-        <v>13.3</v>
+        <v>10.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1213.02</v>
+        <v>796.64</v>
       </c>
       <c r="I7" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="J7" t="n">
-        <v>602.23</v>
+        <v>370.23</v>
       </c>
       <c r="K7" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="L7" t="n">
-        <v>5758.87</v>
+        <v>3881.1</v>
       </c>
       <c r="M7" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="N7" t="n">
-        <v>385.62</v>
+        <v>257.99</v>
       </c>
       <c r="O7" t="n">
-        <v>9.300000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="P7" t="n">
-        <v>377.77</v>
+        <v>288.68</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.3</v>
+        <v>10.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1736.66</v>
+        <v>1208.81</v>
       </c>
       <c r="S7" t="n">
-        <v>12</v>
+        <v>12.3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>233.1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>37.16</v>
+      </c>
+      <c r="V7" t="n">
+        <v>200.99</v>
+      </c>
+      <c r="W7" t="n">
+        <v>393.83</v>
+      </c>
+      <c r="X7" t="n">
+        <v>147.97</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1706.41</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>111.62</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>102.83</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>478.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>487.53</v>
+        <v>736.77</v>
       </c>
       <c r="C8" t="n">
-        <v>14.9</v>
+        <v>11.6</v>
       </c>
       <c r="D8" t="n">
-        <v>94.43000000000001</v>
+        <v>127.79</v>
       </c>
       <c r="E8" t="n">
-        <v>16.5</v>
+        <v>11.2</v>
       </c>
       <c r="F8" t="n">
-        <v>376.78</v>
+        <v>579.02</v>
       </c>
       <c r="G8" t="n">
-        <v>10.6</v>
+        <v>13.3</v>
       </c>
       <c r="H8" t="n">
-        <v>796.64</v>
+        <v>1213.02</v>
       </c>
       <c r="I8" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="J8" t="n">
-        <v>370.23</v>
+        <v>602.23</v>
       </c>
       <c r="K8" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="L8" t="n">
-        <v>3881.1</v>
+        <v>5758.87</v>
       </c>
       <c r="M8" t="n">
-        <v>10.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="N8" t="n">
-        <v>257.99</v>
+        <v>385.62</v>
       </c>
       <c r="O8" t="n">
-        <v>11.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>288.68</v>
+        <v>377.77</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.5</v>
+        <v>11.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1208.81</v>
+        <v>1736.66</v>
       </c>
       <c r="S8" t="n">
-        <v>12.3</v>
+        <v>12</v>
+      </c>
+      <c r="T8" t="n">
+        <v>249.24</v>
+      </c>
+      <c r="U8" t="n">
+        <v>33.36</v>
+      </c>
+      <c r="V8" t="n">
+        <v>202.24</v>
+      </c>
+      <c r="W8" t="n">
+        <v>416.38</v>
+      </c>
+      <c r="X8" t="n">
+        <v>232</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1877.77</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>127.63</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>89.08999999999997</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>527.8500000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -939,12 +1173,39 @@
       </c>
       <c r="S9" t="n">
         <v>10.2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>275.86</v>
+      </c>
+      <c r="U9" t="n">
+        <v>35.17</v>
+      </c>
+      <c r="V9" t="n">
+        <v>174.83</v>
+      </c>
+      <c r="W9" t="n">
+        <v>549.73</v>
+      </c>
+      <c r="X9" t="n">
+        <v>257.27</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2623.7</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>120.87</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>132.63</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1077.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1000,134 +1261,215 @@
       </c>
       <c r="S10" t="n">
         <v>11.8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>306.3204556049</v>
+      </c>
+      <c r="U10" t="n">
+        <v>60.5060678630835</v>
+      </c>
+      <c r="V10" t="n">
+        <v>204.516013802785</v>
+      </c>
+      <c r="W10" t="n">
+        <v>470.170580327629</v>
+      </c>
+      <c r="X10" t="n">
+        <v>192.739720865606</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2429.17</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>169.060403589187</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>209.887589185018</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>815.9733090653</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>857.444175043018</v>
+        <v>576.49</v>
       </c>
       <c r="C11" t="n">
-        <v>16.4</v>
+        <v>18.2</v>
       </c>
       <c r="D11" t="n">
-        <v>137.736557523366</v>
+        <v>102.33</v>
       </c>
       <c r="E11" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="F11" t="n">
-        <v>631.775708036242</v>
+        <v>419.26</v>
       </c>
       <c r="G11" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>883.04</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>416.89</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4326.12</v>
+      </c>
+      <c r="M11" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>281.59</v>
+      </c>
+      <c r="O11" t="n">
         <v>9.1</v>
       </c>
-      <c r="H11" t="n">
-        <v>1348.92533525508</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>663.187436121567</v>
-      </c>
-      <c r="K11" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>6372.72</v>
-      </c>
-      <c r="M11" t="n">
-        <v>9.27936821322804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>413.564888930214</v>
-      </c>
-      <c r="O11" t="n">
-        <v>7.2</v>
-      </c>
       <c r="P11" t="n">
-        <v>407.999192175115</v>
+        <v>316.96</v>
       </c>
       <c r="Q11" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="R11" t="n">
-        <v>1912.08493927056</v>
+        <v>1329.56</v>
       </c>
       <c r="S11" t="n">
-        <v>10.1</v>
+        <v>10</v>
+      </c>
+      <c r="T11" t="n">
+        <v>270.1695443951</v>
+      </c>
+      <c r="U11" t="n">
+        <v>41.8239321369165</v>
+      </c>
+      <c r="V11" t="n">
+        <v>214.743986197215</v>
+      </c>
+      <c r="W11" t="n">
+        <v>412.869419672371</v>
+      </c>
+      <c r="X11" t="n">
+        <v>224.150279134394</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1896.95</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>112.529596410813</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>107.072410814982</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>513.5866909347</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.49</v>
+        <v>857.444175043018</v>
       </c>
       <c r="C12" t="n">
-        <v>18.2</v>
+        <v>16.4</v>
       </c>
       <c r="D12" t="n">
-        <v>102.33</v>
+        <v>137.736557523366</v>
       </c>
       <c r="E12" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="F12" t="n">
-        <v>419.26</v>
+        <v>631.775708036242</v>
       </c>
       <c r="G12" t="n">
-        <v>11.3</v>
+        <v>9.1</v>
       </c>
       <c r="H12" t="n">
-        <v>883.04</v>
+        <v>1348.92533525508</v>
       </c>
       <c r="I12" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="J12" t="n">
-        <v>416.89</v>
+        <v>663.187436121567</v>
       </c>
       <c r="K12" t="n">
-        <v>12.6</v>
+        <v>10.1</v>
       </c>
       <c r="L12" t="n">
-        <v>4326.12</v>
+        <v>6372.72</v>
       </c>
       <c r="M12" t="n">
-        <v>10.3</v>
+        <v>9.27936821322804</v>
       </c>
       <c r="N12" t="n">
-        <v>281.59</v>
+        <v>413.564888930214</v>
       </c>
       <c r="O12" t="n">
-        <v>9.1</v>
+        <v>7.2</v>
       </c>
       <c r="P12" t="n">
-        <v>316.96</v>
+        <v>407.999192175115</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="R12" t="n">
-        <v>1329.56</v>
+        <v>1912.08493927056</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>10.1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>280.954175043018</v>
+      </c>
+      <c r="U12" t="n">
+        <v>35.406557523366</v>
+      </c>
+      <c r="V12" t="n">
+        <v>212.515708036242</v>
+      </c>
+      <c r="W12" t="n">
+        <v>465.88533525508</v>
+      </c>
+      <c r="X12" t="n">
+        <v>246.297436121567</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2046.6</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>131.974888930214</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>91.03919217511503</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>582.52493927056</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1183,12 +1525,39 @@
       </c>
       <c r="S13" t="n">
         <v>8.300000000000001</v>
+      </c>
+      <c r="T13" t="n">
+        <v>305.657353695912</v>
+      </c>
+      <c r="U13" t="n">
+        <v>36.224946317247</v>
+      </c>
+      <c r="V13" t="n">
+        <v>214.189690805855</v>
+      </c>
+      <c r="W13" t="n">
+        <v>577.2413710019</v>
+      </c>
+      <c r="X13" t="n">
+        <v>306.12412269684</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2849.8738924203</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>132.040692750828</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>142.485766062922</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1135.91171673364</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1244,134 +1613,215 @@
       </c>
       <c r="S14" t="n">
         <v>9.800000000000001</v>
+      </c>
+      <c r="T14" t="n">
+        <v>359.897669245868</v>
+      </c>
+      <c r="U14" t="n">
+        <v>64.19093902542549</v>
+      </c>
+      <c r="V14" t="n">
+        <v>223.360306176087</v>
+      </c>
+      <c r="W14" t="n">
+        <v>513.246088004347</v>
+      </c>
+      <c r="X14" t="n">
+        <v>263.346754534483</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2703.33638049678</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>173.962090179154</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>209.544337360131</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>895.788195971298</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>971.1079408000001</v>
+        <v>658.7065112163</v>
       </c>
       <c r="C15" t="n">
-        <v>13.3</v>
+        <v>14.3</v>
       </c>
       <c r="D15" t="n">
-        <v>141.499115</v>
+        <v>107.1336218141</v>
       </c>
       <c r="E15" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="F15" t="n">
-        <v>696.3348895</v>
+        <v>468.5431428937</v>
       </c>
       <c r="G15" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1008.7407820094</v>
+      </c>
+      <c r="I15" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>459.4578712235</v>
+      </c>
+      <c r="K15" t="n">
         <v>10.2</v>
       </c>
-      <c r="H15" t="n">
-        <v>1511.098092</v>
-      </c>
-      <c r="I15" t="n">
-        <v>12</v>
-      </c>
-      <c r="J15" t="n">
-        <v>744.1597439</v>
-      </c>
-      <c r="K15" t="n">
-        <v>12.2</v>
-      </c>
       <c r="L15" t="n">
-        <v>7017.202053</v>
+        <v>4788</v>
       </c>
       <c r="M15" t="n">
-        <v>8.15324165</v>
+        <v>8.4</v>
       </c>
       <c r="N15" t="n">
-        <v>446.5041135</v>
+        <v>297.7542763871</v>
       </c>
       <c r="O15" t="n">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="P15" t="n">
-        <v>417.4164456</v>
+        <v>322.3449295325</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
-        <v>2089.081713</v>
+        <v>1465.6738709611</v>
       </c>
       <c r="S15" t="n">
-        <v>9.300000000000001</v>
+        <v>10.2</v>
+      </c>
+      <c r="T15" t="n">
+        <v>298.808841970432</v>
+      </c>
+      <c r="U15" t="n">
+        <v>42.9426827886745</v>
+      </c>
+      <c r="V15" t="n">
+        <v>245.182836717613</v>
+      </c>
+      <c r="W15" t="n">
+        <v>495.494694005053</v>
+      </c>
+      <c r="X15" t="n">
+        <v>196.111116689017</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2084.66361950322</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>123.792186207946</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>112.800592172369</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>569.8856749898019</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>658.7065112163</v>
+        <v>971.1079408000001</v>
       </c>
       <c r="C16" t="n">
-        <v>14.3</v>
+        <v>13.3</v>
       </c>
       <c r="D16" t="n">
-        <v>107.1336218141</v>
+        <v>141.499115</v>
       </c>
       <c r="E16" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="F16" t="n">
-        <v>468.5431428937</v>
+        <v>696.3348895</v>
       </c>
       <c r="G16" t="n">
-        <v>11.8</v>
+        <v>10.2</v>
       </c>
       <c r="H16" t="n">
-        <v>1008.7407820094</v>
+        <v>1511.098092</v>
       </c>
       <c r="I16" t="n">
-        <v>14.2</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>459.4578712235</v>
+        <v>744.1597439</v>
       </c>
       <c r="K16" t="n">
-        <v>10.2</v>
+        <v>12.2</v>
       </c>
       <c r="L16" t="n">
-        <v>4788</v>
+        <v>7017.202053</v>
       </c>
       <c r="M16" t="n">
-        <v>8.4</v>
+        <v>8.15324165</v>
       </c>
       <c r="N16" t="n">
-        <v>297.7542763871</v>
+        <v>446.5041135</v>
       </c>
       <c r="O16" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="P16" t="n">
-        <v>322.3449295325</v>
+        <v>417.4164456</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="R16" t="n">
-        <v>1465.6738709611</v>
+        <v>2089.081713</v>
       </c>
       <c r="S16" t="n">
-        <v>10.2</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="T16" t="n">
+        <v>312.4014295837001</v>
+      </c>
+      <c r="U16" t="n">
+        <v>34.36549318589999</v>
+      </c>
+      <c r="V16" t="n">
+        <v>227.7917466063</v>
+      </c>
+      <c r="W16" t="n">
+        <v>502.3573099905999</v>
+      </c>
+      <c r="X16" t="n">
+        <v>284.7018726765</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2229.202053</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>148.7498371129</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>95.0715160675</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>623.4078420389001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1427,12 +1877,39 @@
       </c>
       <c r="S17" t="n">
         <v>7.2</v>
+      </c>
+      <c r="T17" t="n">
+        <v>388.8920591999999</v>
+      </c>
+      <c r="U17" t="n">
+        <v>44.50088500000001</v>
+      </c>
+      <c r="V17" t="n">
+        <v>232.6651105</v>
+      </c>
+      <c r="W17" t="n">
+        <v>635.901908</v>
+      </c>
+      <c r="X17" t="n">
+        <v>325.8402561</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3112.797947</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>149.4958865</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>157.5835544</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1176.918287</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1488,134 +1965,215 @@
       </c>
       <c r="S18" t="n">
         <v>5.6</v>
+      </c>
+      <c r="T18" t="n">
+        <v>397</v>
+      </c>
+      <c r="U18" t="n">
+        <v>68</v>
+      </c>
+      <c r="V18" t="n">
+        <v>261</v>
+      </c>
+      <c r="W18" t="n">
+        <v>558</v>
+      </c>
+      <c r="X18" t="n">
+        <v>301</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2921</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>173</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>216</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>946</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1086.122035</v>
+        <v>733.3618739999999</v>
       </c>
       <c r="C19" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="D19" t="n">
-        <v>153.179887</v>
+        <v>116.378363</v>
       </c>
       <c r="E19" t="n">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="F19" t="n">
-        <v>805.948892</v>
+        <v>531.156435</v>
       </c>
       <c r="G19" t="n">
-        <v>15.7</v>
+        <v>13.4</v>
       </c>
       <c r="H19" t="n">
-        <v>1650.929606</v>
+        <v>1088.294482</v>
       </c>
       <c r="I19" t="n">
-        <v>9.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="J19" t="n">
-        <v>801.694895</v>
+        <v>499.060693</v>
       </c>
       <c r="K19" t="n">
-        <v>7.7</v>
+        <v>8.6</v>
       </c>
       <c r="L19" t="n">
-        <v>7623.352898</v>
+        <v>5173.838707</v>
       </c>
       <c r="M19" t="n">
-        <v>7.418397626</v>
+        <v>7.02970297</v>
       </c>
       <c r="N19" t="n">
-        <v>468.396257</v>
+        <v>306.731818</v>
       </c>
       <c r="O19" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="P19" t="n">
-        <v>442.862922</v>
+        <v>336.792396</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.1</v>
+        <v>4.5</v>
       </c>
       <c r="R19" t="n">
-        <v>2214.218403</v>
+        <v>1562.062647</v>
       </c>
       <c r="S19" t="n">
-        <v>6</v>
+        <v>6.6</v>
+      </c>
+      <c r="T19" t="n">
+        <v>336.3618739999999</v>
+      </c>
+      <c r="U19" t="n">
+        <v>48.37836299999999</v>
+      </c>
+      <c r="V19" t="n">
+        <v>270.156435</v>
+      </c>
+      <c r="W19" t="n">
+        <v>530.294482</v>
+      </c>
+      <c r="X19" t="n">
+        <v>198.060693</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2252.838707</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>133.731818</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>120.792396</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>616.062647</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>733.3618739999999</v>
+        <v>1086.122035</v>
       </c>
       <c r="C20" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="D20" t="n">
-        <v>116.378363</v>
+        <v>153.179887</v>
       </c>
       <c r="E20" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>531.156435</v>
+        <v>805.948892</v>
       </c>
       <c r="G20" t="n">
-        <v>13.4</v>
+        <v>15.7</v>
       </c>
       <c r="H20" t="n">
-        <v>1088.294482</v>
+        <v>1650.929606</v>
       </c>
       <c r="I20" t="n">
-        <v>7.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>499.060693</v>
+        <v>801.694895</v>
       </c>
       <c r="K20" t="n">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
       <c r="L20" t="n">
-        <v>5173.838707</v>
+        <v>7623.352898</v>
       </c>
       <c r="M20" t="n">
-        <v>7.02970297</v>
+        <v>7.418397626</v>
       </c>
       <c r="N20" t="n">
-        <v>306.731818</v>
+        <v>468.396257</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="P20" t="n">
-        <v>336.792396</v>
+        <v>442.862922</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
       <c r="R20" t="n">
-        <v>1562.062647</v>
+        <v>2214.218403</v>
       </c>
       <c r="S20" t="n">
-        <v>6.6</v>
+        <v>6</v>
+      </c>
+      <c r="T20" t="n">
+        <v>352.7601610000002</v>
+      </c>
+      <c r="U20" t="n">
+        <v>36.80152400000001</v>
+      </c>
+      <c r="V20" t="n">
+        <v>274.792457</v>
+      </c>
+      <c r="W20" t="n">
+        <v>562.6351239999999</v>
+      </c>
+      <c r="X20" t="n">
+        <v>302.634202</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2449.514191</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>161.664439</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>106.070526</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>652.1557559999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1671,12 +2229,39 @@
       </c>
       <c r="S21" t="n">
         <v>4.6</v>
+      </c>
+      <c r="T21" t="n">
+        <v>423.008018</v>
+      </c>
+      <c r="U21" t="n">
+        <v>47.74067309999998</v>
+      </c>
+      <c r="V21" t="n">
+        <v>252.7992109999999</v>
+      </c>
+      <c r="W21" t="n">
+        <v>702.5706720000001</v>
+      </c>
+      <c r="X21" t="n">
+        <v>369.5551570000001</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>3331.176291999999</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>165.6423558</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>168.7209547</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1201.139248</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1732,134 +2317,215 @@
       </c>
       <c r="S22" t="n">
         <v>8.800000000000001</v>
+      </c>
+      <c r="T22" t="n">
+        <v>450</v>
+      </c>
+      <c r="U22" t="n">
+        <v>72</v>
+      </c>
+      <c r="V22" t="n">
+        <v>325</v>
+      </c>
+      <c r="W22" t="n">
+        <v>644</v>
+      </c>
+      <c r="X22" t="n">
+        <v>272</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>3241</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>209</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1030</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1213</v>
+        <v>820.98754649</v>
       </c>
       <c r="C23" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D23" t="n">
-        <v>167</v>
+        <v>126.7100401</v>
       </c>
       <c r="E23" t="n">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="F23" t="n">
-        <v>970</v>
+        <v>654.4517269299999</v>
       </c>
       <c r="G23" t="n">
-        <v>20.3</v>
+        <v>23.2</v>
       </c>
       <c r="H23" t="n">
-        <v>1880</v>
+        <v>1241.7942005</v>
       </c>
       <c r="I23" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="J23" t="n">
-        <v>885</v>
+        <v>551.84516195</v>
       </c>
       <c r="K23" t="n">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
       <c r="L23" t="n">
-        <v>8538</v>
+        <v>5806</v>
       </c>
       <c r="M23" t="n">
-        <v>9.800000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="N23" t="n">
-        <v>540</v>
+        <v>362.6434434</v>
       </c>
       <c r="O23" t="n">
-        <v>15.2</v>
+        <v>18.2</v>
       </c>
       <c r="P23" t="n">
-        <v>476</v>
+        <v>368.49583989</v>
       </c>
       <c r="Q23" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1679.3481404</v>
+      </c>
+      <c r="S23" t="n">
         <v>7.5</v>
       </c>
-      <c r="R23" t="n">
-        <v>2408</v>
-      </c>
-      <c r="S23" t="n">
-        <v>8.699999999999999</v>
+      <c r="T23" t="n">
+        <v>370.98754649</v>
+      </c>
+      <c r="U23" t="n">
+        <v>54.7100401</v>
+      </c>
+      <c r="V23" t="n">
+        <v>329.4517269299999</v>
+      </c>
+      <c r="W23" t="n">
+        <v>597.7942005</v>
+      </c>
+      <c r="X23" t="n">
+        <v>279.84516195</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2565</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>153.6434434</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>128.49583989</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>649.3481403999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>820.98754649</v>
+        <v>1213</v>
       </c>
       <c r="C24" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D24" t="n">
-        <v>126.7100401</v>
+        <v>167</v>
       </c>
       <c r="E24" t="n">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>654.4517269299999</v>
+        <v>970</v>
       </c>
       <c r="G24" t="n">
-        <v>23.2</v>
+        <v>20.3</v>
       </c>
       <c r="H24" t="n">
-        <v>1241.7942005</v>
+        <v>1880</v>
       </c>
       <c r="I24" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="J24" t="n">
-        <v>551.84516195</v>
+        <v>885</v>
       </c>
       <c r="K24" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="L24" t="n">
-        <v>5806</v>
+        <v>8538</v>
       </c>
       <c r="M24" t="n">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N24" t="n">
-        <v>362.6434434</v>
+        <v>540</v>
       </c>
       <c r="O24" t="n">
-        <v>18.2</v>
+        <v>15.2</v>
       </c>
       <c r="P24" t="n">
-        <v>368.49583989</v>
+        <v>476</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.4</v>
+        <v>7.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1679.3481404</v>
+        <v>2408</v>
       </c>
       <c r="S24" t="n">
-        <v>7.5</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="T24" t="n">
+        <v>392.01245351</v>
+      </c>
+      <c r="U24" t="n">
+        <v>40.2899599</v>
+      </c>
+      <c r="V24" t="n">
+        <v>315.5482730700001</v>
+      </c>
+      <c r="W24" t="n">
+        <v>638.2057995</v>
+      </c>
+      <c r="X24" t="n">
+        <v>333.15483805</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2732</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>177.3565566</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>107.50416011</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>728.6518596000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1915,12 +2581,39 @@
       </c>
       <c r="S25" t="n">
         <v>6.7</v>
+      </c>
+      <c r="T25" t="n">
+        <v>477</v>
+      </c>
+      <c r="U25" t="n">
+        <v>51</v>
+      </c>
+      <c r="V25" t="n">
+        <v>270</v>
+      </c>
+      <c r="W25" t="n">
+        <v>781</v>
+      </c>
+      <c r="X25" t="n">
+        <v>417</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>3586</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>180</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>172</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1238</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1976,134 +2669,215 @@
       </c>
       <c r="S26" t="n">
         <v>6.8</v>
+      </c>
+      <c r="T26" t="n">
+        <v>486.0217315017</v>
+      </c>
+      <c r="U26" t="n">
+        <v>74.6477624405</v>
+      </c>
+      <c r="V26" t="n">
+        <v>350.7740323319</v>
+      </c>
+      <c r="W26" t="n">
+        <v>693.5698784817999</v>
+      </c>
+      <c r="X26" t="n">
+        <v>351.4584666793</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3524.6354348914</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>210.1537481843</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>258.3210550258</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1099.688760246</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1336.1080180199</v>
+        <v>902.960316049</v>
       </c>
       <c r="C27" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>183.7180837076</v>
+        <v>134.5127695382</v>
       </c>
       <c r="E27" t="n">
-        <v>9.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="F27" t="n">
-        <v>1078.7845128531</v>
+        <v>716.5933551094</v>
       </c>
       <c r="G27" t="n">
-        <v>11.3</v>
+        <v>9.5</v>
       </c>
       <c r="H27" t="n">
-        <v>2011.801697226</v>
+        <v>1343.4514532574</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J27" t="n">
-        <v>1015.9928153802</v>
+        <v>612.7275874127999</v>
       </c>
       <c r="K27" t="n">
-        <v>14.8</v>
+        <v>11</v>
       </c>
       <c r="L27" t="n">
-        <v>9353.1746842016</v>
+        <v>6310.3876011368</v>
       </c>
       <c r="M27" t="n">
-        <v>6.7251461988</v>
+        <v>6.3600782779</v>
       </c>
       <c r="N27" t="n">
-        <v>555.1425808245</v>
+        <v>372.8057066095</v>
       </c>
       <c r="O27" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P27" t="n">
-        <v>515.4045683284</v>
+        <v>397.3438637074</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="R27" t="n">
-        <v>2656.2224078619</v>
+        <v>1829.9925494531</v>
       </c>
       <c r="S27" t="n">
-        <v>10.3</v>
+        <v>9</v>
+      </c>
+      <c r="T27" t="n">
+        <v>416.9385845473</v>
+      </c>
+      <c r="U27" t="n">
+        <v>59.86500709769999</v>
+      </c>
+      <c r="V27" t="n">
+        <v>365.8193227775</v>
+      </c>
+      <c r="W27" t="n">
+        <v>649.8815747756001</v>
+      </c>
+      <c r="X27" t="n">
+        <v>261.2691207335</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2785.7521662454</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>162.6519584252</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>139.0228086816</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>730.3037892071002</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>902.960316049</v>
+        <v>1336.1080180199</v>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="D28" t="n">
-        <v>134.5127695382</v>
+        <v>183.7180837076</v>
       </c>
       <c r="E28" t="n">
-        <v>6.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>716.5933551094</v>
+        <v>1078.7845128531</v>
       </c>
       <c r="G28" t="n">
-        <v>9.5</v>
+        <v>11.3</v>
       </c>
       <c r="H28" t="n">
-        <v>1343.4514532574</v>
+        <v>2011.801697226</v>
       </c>
       <c r="I28" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
-        <v>612.7275874127999</v>
+        <v>1015.9928153802</v>
       </c>
       <c r="K28" t="n">
-        <v>11</v>
+        <v>14.8</v>
       </c>
       <c r="L28" t="n">
-        <v>6310.3876011368</v>
+        <v>9353.1746842016</v>
       </c>
       <c r="M28" t="n">
-        <v>6.3600782779</v>
+        <v>6.7251461988</v>
       </c>
       <c r="N28" t="n">
-        <v>372.8057066095</v>
+        <v>555.1425808245</v>
       </c>
       <c r="O28" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P28" t="n">
-        <v>397.3438637074</v>
+        <v>515.4045683284</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="R28" t="n">
-        <v>1829.9925494531</v>
+        <v>2656.2224078619</v>
       </c>
       <c r="S28" t="n">
-        <v>9</v>
+        <v>10.3</v>
+      </c>
+      <c r="T28" t="n">
+        <v>433.1477019709001</v>
+      </c>
+      <c r="U28" t="n">
+        <v>49.2053141694</v>
+      </c>
+      <c r="V28" t="n">
+        <v>362.1911577437</v>
+      </c>
+      <c r="W28" t="n">
+        <v>668.3502439685999</v>
+      </c>
+      <c r="X28" t="n">
+        <v>403.2652279674001</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3042.7870830648</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>182.336874215</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>118.0607046210001</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>826.2298584088001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2159,12 +2933,39 @@
       </c>
       <c r="S29" t="n">
         <v>9.699999999999999</v>
+      </c>
+      <c r="T29" t="n">
+        <v>500.8919819800999</v>
+      </c>
+      <c r="U29" t="n">
+        <v>57.28191629240001</v>
+      </c>
+      <c r="V29" t="n">
+        <v>342.2154871468999</v>
+      </c>
+      <c r="W29" t="n">
+        <v>859.198302774</v>
+      </c>
+      <c r="X29" t="n">
+        <v>466.0071846198</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3974.8253157984</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>208.8574191755</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>197.5954316716</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1341.7775921381</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2220,134 +3021,215 @@
       </c>
       <c r="S30" t="n">
         <v>9.5</v>
+      </c>
+      <c r="T30" t="n">
+        <v>429</v>
+      </c>
+      <c r="U30" t="n">
+        <v>63</v>
+      </c>
+      <c r="V30" t="n">
+        <v>320</v>
+      </c>
+      <c r="W30" t="n">
+        <v>699</v>
+      </c>
+      <c r="X30" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>3334</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>229</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1204</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1314</v>
+        <v>850</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.7</v>
+        <v>-5.9</v>
       </c>
       <c r="D31" t="n">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="E31" t="n">
-        <v>-9.300000000000001</v>
+        <v>-14.6</v>
       </c>
       <c r="F31" t="n">
-        <v>1023</v>
+        <v>639</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.2</v>
+        <v>-10.8</v>
       </c>
       <c r="H31" t="n">
-        <v>2116</v>
+        <v>1401</v>
       </c>
       <c r="I31" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="J31" t="n">
-        <v>770</v>
+        <v>404</v>
       </c>
       <c r="K31" t="n">
-        <v>-24.2</v>
+        <v>-34</v>
       </c>
       <c r="L31" t="n">
-        <v>9430</v>
+        <v>6209</v>
       </c>
       <c r="M31" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N31" t="n">
+        <v>361</v>
+      </c>
+      <c r="O31" t="n">
         <v>-3.2</v>
       </c>
-      <c r="N31" t="n">
-        <v>552</v>
-      </c>
-      <c r="O31" t="n">
-        <v>-0.5</v>
-      </c>
       <c r="P31" t="n">
-        <v>491</v>
+        <v>366</v>
       </c>
       <c r="Q31" t="n">
-        <v>-4.7</v>
+        <v>-8</v>
       </c>
       <c r="R31" t="n">
-        <v>2997</v>
+        <v>2074</v>
       </c>
       <c r="S31" t="n">
-        <v>12.8</v>
+        <v>13.3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>421</v>
+      </c>
+      <c r="U31" t="n">
+        <v>52</v>
+      </c>
+      <c r="V31" t="n">
+        <v>319</v>
+      </c>
+      <c r="W31" t="n">
+        <v>702</v>
+      </c>
+      <c r="X31" t="n">
+        <v>204</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>2875</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>171</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>137</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>870</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>850</v>
+        <v>1314</v>
       </c>
       <c r="C32" t="n">
-        <v>-5.9</v>
+        <v>-1.7</v>
       </c>
       <c r="D32" t="n">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="E32" t="n">
-        <v>-14.6</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>639</v>
+        <v>1023</v>
       </c>
       <c r="G32" t="n">
-        <v>-10.8</v>
+        <v>-5.2</v>
       </c>
       <c r="H32" t="n">
-        <v>1401</v>
+        <v>2116</v>
       </c>
       <c r="I32" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="J32" t="n">
-        <v>404</v>
+        <v>770</v>
       </c>
       <c r="K32" t="n">
-        <v>-34</v>
+        <v>-24.2</v>
       </c>
       <c r="L32" t="n">
-        <v>6209</v>
+        <v>9430</v>
       </c>
       <c r="M32" t="n">
-        <v>-6</v>
+        <v>-3.2</v>
       </c>
       <c r="N32" t="n">
-        <v>361</v>
+        <v>552</v>
       </c>
       <c r="O32" t="n">
-        <v>-3.2</v>
+        <v>-0.5</v>
       </c>
       <c r="P32" t="n">
+        <v>491</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2997</v>
+      </c>
+      <c r="S32" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="T32" t="n">
+        <v>464</v>
+      </c>
+      <c r="U32" t="n">
+        <v>52</v>
+      </c>
+      <c r="V32" t="n">
+        <v>384</v>
+      </c>
+      <c r="W32" t="n">
+        <v>715</v>
+      </c>
+      <c r="X32" t="n">
         <v>366</v>
       </c>
-      <c r="Q32" t="n">
-        <v>-8</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2074</v>
-      </c>
-      <c r="S32" t="n">
-        <v>13.3</v>
+      <c r="Y32" t="n">
+        <v>3221</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>125</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>923</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2403,12 +3285,39 @@
       </c>
       <c r="S33" t="n">
         <v>12</v>
+      </c>
+      <c r="T33" t="n">
+        <v>527</v>
+      </c>
+      <c r="U33" t="n">
+        <v>57</v>
+      </c>
+      <c r="V33" t="n">
+        <v>395</v>
+      </c>
+      <c r="W33" t="n">
+        <v>846</v>
+      </c>
+      <c r="X33" t="n">
+        <v>539</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>4283</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>216</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>222</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1482</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2464,134 +3373,215 @@
       </c>
       <c r="S34" t="n">
         <v>20.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>508</v>
+      </c>
+      <c r="U34" t="n">
+        <v>77</v>
+      </c>
+      <c r="V34" t="n">
+        <v>353</v>
+      </c>
+      <c r="W34" t="n">
+        <v>786</v>
+      </c>
+      <c r="X34" t="n">
+        <v>340</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>4039</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>239</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>284</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1451</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1540</v>
+        <v>1006</v>
       </c>
       <c r="C35" t="n">
-        <v>17.3</v>
+        <v>18.4</v>
       </c>
       <c r="D35" t="n">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="E35" t="n">
-        <v>25.1</v>
+        <v>30.5</v>
       </c>
       <c r="F35" t="n">
-        <v>1171</v>
+        <v>749</v>
       </c>
       <c r="G35" t="n">
-        <v>14.4</v>
+        <v>17.1</v>
       </c>
       <c r="H35" t="n">
-        <v>2328</v>
+        <v>1543</v>
       </c>
       <c r="I35" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="J35" t="n">
-        <v>1131</v>
+        <v>674</v>
       </c>
       <c r="K35" t="n">
-        <v>47</v>
+        <v>66.8</v>
       </c>
       <c r="L35" t="n">
-        <v>11179</v>
+        <v>7464</v>
       </c>
       <c r="M35" t="n">
-        <v>18.1</v>
+        <v>19.7</v>
       </c>
       <c r="N35" t="n">
-        <v>660</v>
+        <v>436</v>
       </c>
       <c r="O35" t="n">
-        <v>19.4</v>
+        <v>20.8</v>
       </c>
       <c r="P35" t="n">
-        <v>615</v>
+        <v>461</v>
       </c>
       <c r="Q35" t="n">
-        <v>25.2</v>
+        <v>26.1</v>
       </c>
       <c r="R35" t="n">
-        <v>3526</v>
+        <v>2446</v>
       </c>
       <c r="S35" t="n">
-        <v>17.7</v>
+        <v>18</v>
+      </c>
+      <c r="T35" t="n">
+        <v>498</v>
+      </c>
+      <c r="U35" t="n">
+        <v>73</v>
+      </c>
+      <c r="V35" t="n">
+        <v>396</v>
+      </c>
+      <c r="W35" t="n">
+        <v>757</v>
+      </c>
+      <c r="X35" t="n">
+        <v>334</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3425</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>197</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>177</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>995</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1006</v>
+        <v>1540</v>
       </c>
       <c r="C36" t="n">
-        <v>18.4</v>
+        <v>17.3</v>
       </c>
       <c r="D36" t="n">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="E36" t="n">
-        <v>30.5</v>
+        <v>25.1</v>
       </c>
       <c r="F36" t="n">
-        <v>749</v>
+        <v>1171</v>
       </c>
       <c r="G36" t="n">
-        <v>17.1</v>
+        <v>14.4</v>
       </c>
       <c r="H36" t="n">
-        <v>1543</v>
+        <v>2328</v>
       </c>
       <c r="I36" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="J36" t="n">
-        <v>674</v>
+        <v>1131</v>
       </c>
       <c r="K36" t="n">
-        <v>66.8</v>
+        <v>47</v>
       </c>
       <c r="L36" t="n">
-        <v>7464</v>
+        <v>11179</v>
       </c>
       <c r="M36" t="n">
-        <v>19.7</v>
+        <v>18.1</v>
       </c>
       <c r="N36" t="n">
-        <v>436</v>
+        <v>660</v>
       </c>
       <c r="O36" t="n">
-        <v>20.8</v>
+        <v>19.4</v>
       </c>
       <c r="P36" t="n">
-        <v>461</v>
+        <v>615</v>
       </c>
       <c r="Q36" t="n">
-        <v>26.1</v>
+        <v>25.2</v>
       </c>
       <c r="R36" t="n">
-        <v>2446</v>
+        <v>3526</v>
       </c>
       <c r="S36" t="n">
-        <v>18</v>
+        <v>17.7</v>
+      </c>
+      <c r="T36" t="n">
+        <v>534</v>
+      </c>
+      <c r="U36" t="n">
+        <v>59</v>
+      </c>
+      <c r="V36" t="n">
+        <v>422</v>
+      </c>
+      <c r="W36" t="n">
+        <v>785</v>
+      </c>
+      <c r="X36" t="n">
+        <v>457</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>3715</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>224</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>154</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1080</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2632,6 +3622,33 @@
         <v>5200.19</v>
       </c>
       <c r="S37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>591.8299999999999</v>
+      </c>
+      <c r="U37" t="n">
+        <v>74.77999999999997</v>
+      </c>
+      <c r="V37" t="n">
+        <v>408.6199999999999</v>
+      </c>
+      <c r="W37" t="n">
+        <v>986.73</v>
+      </c>
+      <c r="X37" t="n">
+        <v>514.49</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>4736.549999999999</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>240.47</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>244.46</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1674.19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_quarter/zb/人民生活/农村居民人均支出情况.xlsx
+++ b/data_quarter/zb/人民生活/农村居民人均支出情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,51 +524,6 @@
           <t>农村居民人均食品烟酒支出_累计增长</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>农村居民人均交通通信支出</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>农村居民人均其他用品及服务支出</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>农村居民人均医疗保健支出</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>农村居民人均居住支出</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>农村居民人均教育文化娱乐支出</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>农村居民人均消费支出</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>农村居民人均生活用品及服务支出</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>农村居民人均衣着支出</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>农村居民人均食品烟酒支出</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -612,173 +567,92 @@
         <v>646.9</v>
       </c>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>219.4</v>
-      </c>
-      <c r="U2" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="V2" t="n">
-        <v>157.4</v>
-      </c>
-      <c r="W2" t="n">
-        <v>358.8</v>
-      </c>
-      <c r="X2" t="n">
-        <v>185</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1919.37</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>171.6</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>646.9</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>434.3</v>
+        <v>660.2</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>340.8</v>
+        <v>511.1</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>712.4</v>
+        <v>1085.6</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>329.5</v>
+        <v>535.5</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>3457.54</v>
+        <v>5149.55</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>231.5</v>
+        <v>352.9</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>261.2</v>
+        <v>339.3</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>1066.8</v>
+        <v>1550.1</v>
       </c>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>214.9</v>
-      </c>
-      <c r="U3" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="V3" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="W3" t="n">
-        <v>353.6</v>
-      </c>
-      <c r="X3" t="n">
-        <v>144.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1538.17</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>419.9</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>660.2</v>
+        <v>434.3</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>511.1</v>
+        <v>340.8</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>1085.6</v>
+        <v>712.4</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>535.5</v>
+        <v>329.5</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5149.55</v>
+        <v>3457.54</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>352.9</v>
+        <v>231.5</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>339.3</v>
+        <v>261.2</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>1550.1</v>
+        <v>1066.8</v>
       </c>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="U4" t="n">
-        <v>34</v>
-      </c>
-      <c r="V4" t="n">
-        <v>170.3</v>
-      </c>
-      <c r="W4" t="n">
-        <v>373.1999999999999</v>
-      </c>
-      <c r="X4" t="n">
-        <v>206</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1692.01</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>121.4</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>78.10000000000002</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>483.3</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -822,33 +696,6 @@
         <v>2554.41</v>
       </c>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>214.7199999999999</v>
-      </c>
-      <c r="U5" t="n">
-        <v>29.24000000000001</v>
-      </c>
-      <c r="V5" t="n">
-        <v>157.0699999999999</v>
-      </c>
-      <c r="W5" t="n">
-        <v>494.23</v>
-      </c>
-      <c r="X5" t="n">
-        <v>219.11</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2335.599999999999</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>102.23</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>114.54</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1004.31</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -910,208 +757,127 @@
       <c r="S6" t="n">
         <v>12.8</v>
       </c>
-      <c r="T6" t="n">
-        <v>254.43</v>
-      </c>
-      <c r="U6" t="n">
-        <v>57.27</v>
-      </c>
-      <c r="V6" t="n">
-        <v>175.79</v>
-      </c>
-      <c r="W6" t="n">
-        <v>402.81</v>
-      </c>
-      <c r="X6" t="n">
-        <v>222.26</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>2174.69</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>146.37</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>185.85</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>729.91</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>487.53</v>
+        <v>736.77</v>
       </c>
       <c r="C7" t="n">
-        <v>14.9</v>
+        <v>11.6</v>
       </c>
       <c r="D7" t="n">
-        <v>94.43000000000001</v>
+        <v>127.79</v>
       </c>
       <c r="E7" t="n">
-        <v>16.5</v>
+        <v>11.2</v>
       </c>
       <c r="F7" t="n">
-        <v>376.78</v>
+        <v>579.02</v>
       </c>
       <c r="G7" t="n">
-        <v>10.6</v>
+        <v>13.3</v>
       </c>
       <c r="H7" t="n">
-        <v>796.64</v>
+        <v>1213.02</v>
       </c>
       <c r="I7" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="J7" t="n">
-        <v>370.23</v>
+        <v>602.23</v>
       </c>
       <c r="K7" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="L7" t="n">
-        <v>3881.1</v>
+        <v>5758.87</v>
       </c>
       <c r="M7" t="n">
-        <v>10.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>257.99</v>
+        <v>385.62</v>
       </c>
       <c r="O7" t="n">
-        <v>11.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>288.68</v>
+        <v>377.77</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.5</v>
+        <v>11.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1208.81</v>
+        <v>1736.66</v>
       </c>
       <c r="S7" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>233.1</v>
-      </c>
-      <c r="U7" t="n">
-        <v>37.16</v>
-      </c>
-      <c r="V7" t="n">
-        <v>200.99</v>
-      </c>
-      <c r="W7" t="n">
-        <v>393.83</v>
-      </c>
-      <c r="X7" t="n">
-        <v>147.97</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1706.41</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>111.62</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>102.83</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>478.9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>736.77</v>
+        <v>487.53</v>
       </c>
       <c r="C8" t="n">
-        <v>11.6</v>
+        <v>14.9</v>
       </c>
       <c r="D8" t="n">
-        <v>127.79</v>
+        <v>94.43000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>11.2</v>
+        <v>16.5</v>
       </c>
       <c r="F8" t="n">
-        <v>579.02</v>
+        <v>376.78</v>
       </c>
       <c r="G8" t="n">
-        <v>13.3</v>
+        <v>10.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1213.02</v>
+        <v>796.64</v>
       </c>
       <c r="I8" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="J8" t="n">
-        <v>602.23</v>
+        <v>370.23</v>
       </c>
       <c r="K8" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="L8" t="n">
-        <v>5758.87</v>
+        <v>3881.1</v>
       </c>
       <c r="M8" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="N8" t="n">
-        <v>385.62</v>
+        <v>257.99</v>
       </c>
       <c r="O8" t="n">
-        <v>9.300000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="P8" t="n">
-        <v>377.77</v>
+        <v>288.68</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.3</v>
+        <v>10.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1736.66</v>
+        <v>1208.81</v>
       </c>
       <c r="S8" t="n">
-        <v>12</v>
-      </c>
-      <c r="T8" t="n">
-        <v>249.24</v>
-      </c>
-      <c r="U8" t="n">
-        <v>33.36</v>
-      </c>
-      <c r="V8" t="n">
-        <v>202.24</v>
-      </c>
-      <c r="W8" t="n">
-        <v>416.38</v>
-      </c>
-      <c r="X8" t="n">
-        <v>232</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1877.77</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>127.63</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>89.08999999999997</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>527.8500000000001</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="9">
@@ -1174,33 +940,6 @@
       <c r="S9" t="n">
         <v>10.2</v>
       </c>
-      <c r="T9" t="n">
-        <v>275.86</v>
-      </c>
-      <c r="U9" t="n">
-        <v>35.17</v>
-      </c>
-      <c r="V9" t="n">
-        <v>174.83</v>
-      </c>
-      <c r="W9" t="n">
-        <v>549.73</v>
-      </c>
-      <c r="X9" t="n">
-        <v>257.27</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>2623.7</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>120.87</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>132.63</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1077.33</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1262,208 +1001,127 @@
       <c r="S10" t="n">
         <v>11.8</v>
       </c>
-      <c r="T10" t="n">
-        <v>306.3204556049</v>
-      </c>
-      <c r="U10" t="n">
-        <v>60.5060678630835</v>
-      </c>
-      <c r="V10" t="n">
-        <v>204.516013802785</v>
-      </c>
-      <c r="W10" t="n">
-        <v>470.170580327629</v>
-      </c>
-      <c r="X10" t="n">
-        <v>192.739720865606</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>2429.17</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>169.060403589187</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>209.887589185018</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>815.9733090653</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>576.49</v>
+        <v>857.444175043018</v>
       </c>
       <c r="C11" t="n">
-        <v>18.2</v>
+        <v>16.4</v>
       </c>
       <c r="D11" t="n">
-        <v>102.33</v>
+        <v>137.736557523366</v>
       </c>
       <c r="E11" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="F11" t="n">
-        <v>419.26</v>
+        <v>631.775708036242</v>
       </c>
       <c r="G11" t="n">
-        <v>11.3</v>
+        <v>9.1</v>
       </c>
       <c r="H11" t="n">
-        <v>883.04</v>
+        <v>1348.92533525508</v>
       </c>
       <c r="I11" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="J11" t="n">
-        <v>416.89</v>
+        <v>663.187436121567</v>
       </c>
       <c r="K11" t="n">
-        <v>12.6</v>
+        <v>10.1</v>
       </c>
       <c r="L11" t="n">
-        <v>4326.12</v>
+        <v>6372.72</v>
       </c>
       <c r="M11" t="n">
-        <v>10.3</v>
+        <v>9.27936821322804</v>
       </c>
       <c r="N11" t="n">
-        <v>281.59</v>
+        <v>413.564888930214</v>
       </c>
       <c r="O11" t="n">
-        <v>9.1</v>
+        <v>7.2</v>
       </c>
       <c r="P11" t="n">
-        <v>316.96</v>
+        <v>407.999192175115</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="R11" t="n">
-        <v>1329.56</v>
+        <v>1912.08493927056</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
-      </c>
-      <c r="T11" t="n">
-        <v>270.1695443951</v>
-      </c>
-      <c r="U11" t="n">
-        <v>41.8239321369165</v>
-      </c>
-      <c r="V11" t="n">
-        <v>214.743986197215</v>
-      </c>
-      <c r="W11" t="n">
-        <v>412.869419672371</v>
-      </c>
-      <c r="X11" t="n">
-        <v>224.150279134394</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1896.95</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>112.529596410813</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>107.072410814982</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>513.5866909347</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>857.444175043018</v>
+        <v>576.49</v>
       </c>
       <c r="C12" t="n">
-        <v>16.4</v>
+        <v>18.2</v>
       </c>
       <c r="D12" t="n">
-        <v>137.736557523366</v>
+        <v>102.33</v>
       </c>
       <c r="E12" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="F12" t="n">
-        <v>631.775708036242</v>
+        <v>419.26</v>
       </c>
       <c r="G12" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>883.04</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>416.89</v>
+      </c>
+      <c r="K12" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4326.12</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>281.59</v>
+      </c>
+      <c r="O12" t="n">
         <v>9.1</v>
       </c>
-      <c r="H12" t="n">
-        <v>1348.92533525508</v>
-      </c>
-      <c r="I12" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>663.187436121567</v>
-      </c>
-      <c r="K12" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>6372.72</v>
-      </c>
-      <c r="M12" t="n">
-        <v>9.27936821322804</v>
-      </c>
-      <c r="N12" t="n">
-        <v>413.564888930214</v>
-      </c>
-      <c r="O12" t="n">
-        <v>7.2</v>
-      </c>
       <c r="P12" t="n">
-        <v>407.999192175115</v>
+        <v>316.96</v>
       </c>
       <c r="Q12" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="R12" t="n">
-        <v>1912.08493927056</v>
+        <v>1329.56</v>
       </c>
       <c r="S12" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="T12" t="n">
-        <v>280.954175043018</v>
-      </c>
-      <c r="U12" t="n">
-        <v>35.406557523366</v>
-      </c>
-      <c r="V12" t="n">
-        <v>212.515708036242</v>
-      </c>
-      <c r="W12" t="n">
-        <v>465.88533525508</v>
-      </c>
-      <c r="X12" t="n">
-        <v>246.297436121567</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>2046.6</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>131.974888930214</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>91.03919217511503</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>582.52493927056</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1526,33 +1184,6 @@
       <c r="S13" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="T13" t="n">
-        <v>305.657353695912</v>
-      </c>
-      <c r="U13" t="n">
-        <v>36.224946317247</v>
-      </c>
-      <c r="V13" t="n">
-        <v>214.189690805855</v>
-      </c>
-      <c r="W13" t="n">
-        <v>577.2413710019</v>
-      </c>
-      <c r="X13" t="n">
-        <v>306.12412269684</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>2849.8738924203</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>132.040692750828</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>142.485766062922</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1135.91171673364</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1614,208 +1245,127 @@
       <c r="S14" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="T14" t="n">
-        <v>359.897669245868</v>
-      </c>
-      <c r="U14" t="n">
-        <v>64.19093902542549</v>
-      </c>
-      <c r="V14" t="n">
-        <v>223.360306176087</v>
-      </c>
-      <c r="W14" t="n">
-        <v>513.246088004347</v>
-      </c>
-      <c r="X14" t="n">
-        <v>263.346754534483</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>2703.33638049678</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>173.962090179154</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>209.544337360131</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>895.788195971298</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>658.7065112163</v>
+        <v>971.1079408000001</v>
       </c>
       <c r="C15" t="n">
-        <v>14.3</v>
+        <v>13.3</v>
       </c>
       <c r="D15" t="n">
-        <v>107.1336218141</v>
+        <v>141.499115</v>
       </c>
       <c r="E15" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="F15" t="n">
-        <v>468.5431428937</v>
+        <v>696.3348895</v>
       </c>
       <c r="G15" t="n">
-        <v>11.8</v>
+        <v>10.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1008.7407820094</v>
+        <v>1511.098092</v>
       </c>
       <c r="I15" t="n">
-        <v>14.2</v>
+        <v>12</v>
       </c>
       <c r="J15" t="n">
-        <v>459.4578712235</v>
+        <v>744.1597439</v>
       </c>
       <c r="K15" t="n">
-        <v>10.2</v>
+        <v>12.2</v>
       </c>
       <c r="L15" t="n">
-        <v>4788</v>
+        <v>7017.202053</v>
       </c>
       <c r="M15" t="n">
-        <v>8.4</v>
+        <v>8.15324165</v>
       </c>
       <c r="N15" t="n">
-        <v>297.7542763871</v>
+        <v>446.5041135</v>
       </c>
       <c r="O15" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="P15" t="n">
-        <v>322.3449295325</v>
+        <v>417.4164456</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="R15" t="n">
-        <v>1465.6738709611</v>
+        <v>2089.081713</v>
       </c>
       <c r="S15" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="T15" t="n">
-        <v>298.808841970432</v>
-      </c>
-      <c r="U15" t="n">
-        <v>42.9426827886745</v>
-      </c>
-      <c r="V15" t="n">
-        <v>245.182836717613</v>
-      </c>
-      <c r="W15" t="n">
-        <v>495.494694005053</v>
-      </c>
-      <c r="X15" t="n">
-        <v>196.111116689017</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>2084.66361950322</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>123.792186207946</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>112.800592172369</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>569.8856749898019</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>971.1079408000001</v>
+        <v>658.7065112163</v>
       </c>
       <c r="C16" t="n">
-        <v>13.3</v>
+        <v>14.3</v>
       </c>
       <c r="D16" t="n">
-        <v>141.499115</v>
+        <v>107.1336218141</v>
       </c>
       <c r="E16" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="F16" t="n">
-        <v>696.3348895</v>
+        <v>468.5431428937</v>
       </c>
       <c r="G16" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1008.7407820094</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>459.4578712235</v>
+      </c>
+      <c r="K16" t="n">
         <v>10.2</v>
       </c>
-      <c r="H16" t="n">
-        <v>1511.098092</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>744.1597439</v>
-      </c>
-      <c r="K16" t="n">
-        <v>12.2</v>
-      </c>
       <c r="L16" t="n">
-        <v>7017.202053</v>
+        <v>4788</v>
       </c>
       <c r="M16" t="n">
-        <v>8.15324165</v>
+        <v>8.4</v>
       </c>
       <c r="N16" t="n">
-        <v>446.5041135</v>
+        <v>297.7542763871</v>
       </c>
       <c r="O16" t="n">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="P16" t="n">
-        <v>417.4164456</v>
+        <v>322.3449295325</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="R16" t="n">
-        <v>2089.081713</v>
+        <v>1465.6738709611</v>
       </c>
       <c r="S16" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="T16" t="n">
-        <v>312.4014295837001</v>
-      </c>
-      <c r="U16" t="n">
-        <v>34.36549318589999</v>
-      </c>
-      <c r="V16" t="n">
-        <v>227.7917466063</v>
-      </c>
-      <c r="W16" t="n">
-        <v>502.3573099905999</v>
-      </c>
-      <c r="X16" t="n">
-        <v>284.7018726765</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>2229.202053</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>148.7498371129</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>95.0715160675</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>623.4078420389001</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="17">
@@ -1878,33 +1428,6 @@
       <c r="S17" t="n">
         <v>7.2</v>
       </c>
-      <c r="T17" t="n">
-        <v>388.8920591999999</v>
-      </c>
-      <c r="U17" t="n">
-        <v>44.50088500000001</v>
-      </c>
-      <c r="V17" t="n">
-        <v>232.6651105</v>
-      </c>
-      <c r="W17" t="n">
-        <v>635.901908</v>
-      </c>
-      <c r="X17" t="n">
-        <v>325.8402561</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>3112.797947</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>149.4958865</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>157.5835544</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1176.918287</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1966,208 +1489,127 @@
       <c r="S18" t="n">
         <v>5.6</v>
       </c>
-      <c r="T18" t="n">
-        <v>397</v>
-      </c>
-      <c r="U18" t="n">
-        <v>68</v>
-      </c>
-      <c r="V18" t="n">
-        <v>261</v>
-      </c>
-      <c r="W18" t="n">
-        <v>558</v>
-      </c>
-      <c r="X18" t="n">
-        <v>301</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>2921</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>173</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>216</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>946</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.3618739999999</v>
+        <v>1086.122035</v>
       </c>
       <c r="C19" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="D19" t="n">
-        <v>116.378363</v>
+        <v>153.179887</v>
       </c>
       <c r="E19" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>531.156435</v>
+        <v>805.948892</v>
       </c>
       <c r="G19" t="n">
-        <v>13.4</v>
+        <v>15.7</v>
       </c>
       <c r="H19" t="n">
-        <v>1088.294482</v>
+        <v>1650.929606</v>
       </c>
       <c r="I19" t="n">
-        <v>7.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>499.060693</v>
+        <v>801.694895</v>
       </c>
       <c r="K19" t="n">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
       <c r="L19" t="n">
-        <v>5173.838707</v>
+        <v>7623.352898</v>
       </c>
       <c r="M19" t="n">
-        <v>7.02970297</v>
+        <v>7.418397626</v>
       </c>
       <c r="N19" t="n">
-        <v>306.731818</v>
+        <v>468.396257</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="P19" t="n">
-        <v>336.792396</v>
+        <v>442.862922</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1562.062647</v>
+        <v>2214.218403</v>
       </c>
       <c r="S19" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T19" t="n">
-        <v>336.3618739999999</v>
-      </c>
-      <c r="U19" t="n">
-        <v>48.37836299999999</v>
-      </c>
-      <c r="V19" t="n">
-        <v>270.156435</v>
-      </c>
-      <c r="W19" t="n">
-        <v>530.294482</v>
-      </c>
-      <c r="X19" t="n">
-        <v>198.060693</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2252.838707</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>133.731818</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>120.792396</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>616.062647</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1086.122035</v>
+        <v>733.3618739999999</v>
       </c>
       <c r="C20" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="D20" t="n">
-        <v>153.179887</v>
+        <v>116.378363</v>
       </c>
       <c r="E20" t="n">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="F20" t="n">
-        <v>805.948892</v>
+        <v>531.156435</v>
       </c>
       <c r="G20" t="n">
-        <v>15.7</v>
+        <v>13.4</v>
       </c>
       <c r="H20" t="n">
-        <v>1650.929606</v>
+        <v>1088.294482</v>
       </c>
       <c r="I20" t="n">
-        <v>9.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="J20" t="n">
-        <v>801.694895</v>
+        <v>499.060693</v>
       </c>
       <c r="K20" t="n">
-        <v>7.7</v>
+        <v>8.6</v>
       </c>
       <c r="L20" t="n">
-        <v>7623.352898</v>
+        <v>5173.838707</v>
       </c>
       <c r="M20" t="n">
-        <v>7.418397626</v>
+        <v>7.02970297</v>
       </c>
       <c r="N20" t="n">
-        <v>468.396257</v>
+        <v>306.731818</v>
       </c>
       <c r="O20" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
-        <v>442.862922</v>
+        <v>336.792396</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.1</v>
+        <v>4.5</v>
       </c>
       <c r="R20" t="n">
-        <v>2214.218403</v>
+        <v>1562.062647</v>
       </c>
       <c r="S20" t="n">
-        <v>6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>352.7601610000002</v>
-      </c>
-      <c r="U20" t="n">
-        <v>36.80152400000001</v>
-      </c>
-      <c r="V20" t="n">
-        <v>274.792457</v>
-      </c>
-      <c r="W20" t="n">
-        <v>562.6351239999999</v>
-      </c>
-      <c r="X20" t="n">
-        <v>302.634202</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>2449.514191</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>161.664439</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>106.070526</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>652.1557559999999</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="21">
@@ -2230,33 +1672,6 @@
       <c r="S21" t="n">
         <v>4.6</v>
       </c>
-      <c r="T21" t="n">
-        <v>423.008018</v>
-      </c>
-      <c r="U21" t="n">
-        <v>47.74067309999998</v>
-      </c>
-      <c r="V21" t="n">
-        <v>252.7992109999999</v>
-      </c>
-      <c r="W21" t="n">
-        <v>702.5706720000001</v>
-      </c>
-      <c r="X21" t="n">
-        <v>369.5551570000001</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>3331.176291999999</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>165.6423558</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>168.7209547</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1201.139248</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2318,208 +1733,127 @@
       <c r="S22" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="T22" t="n">
-        <v>450</v>
-      </c>
-      <c r="U22" t="n">
-        <v>72</v>
-      </c>
-      <c r="V22" t="n">
-        <v>325</v>
-      </c>
-      <c r="W22" t="n">
-        <v>644</v>
-      </c>
-      <c r="X22" t="n">
-        <v>272</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>3241</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>209</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1030</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>820.98754649</v>
+        <v>1213</v>
       </c>
       <c r="C23" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D23" t="n">
-        <v>126.7100401</v>
+        <v>167</v>
       </c>
       <c r="E23" t="n">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>654.4517269299999</v>
+        <v>970</v>
       </c>
       <c r="G23" t="n">
-        <v>23.2</v>
+        <v>20.3</v>
       </c>
       <c r="H23" t="n">
-        <v>1241.7942005</v>
+        <v>1880</v>
       </c>
       <c r="I23" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="J23" t="n">
-        <v>551.84516195</v>
+        <v>885</v>
       </c>
       <c r="K23" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="L23" t="n">
-        <v>5806</v>
+        <v>8538</v>
       </c>
       <c r="M23" t="n">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N23" t="n">
-        <v>362.6434434</v>
+        <v>540</v>
       </c>
       <c r="O23" t="n">
-        <v>18.2</v>
+        <v>15.2</v>
       </c>
       <c r="P23" t="n">
-        <v>368.49583989</v>
+        <v>476</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.4</v>
+        <v>7.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1679.3481404</v>
+        <v>2408</v>
       </c>
       <c r="S23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="T23" t="n">
-        <v>370.98754649</v>
-      </c>
-      <c r="U23" t="n">
-        <v>54.7100401</v>
-      </c>
-      <c r="V23" t="n">
-        <v>329.4517269299999</v>
-      </c>
-      <c r="W23" t="n">
-        <v>597.7942005</v>
-      </c>
-      <c r="X23" t="n">
-        <v>279.84516195</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>2565</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>153.6434434</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>128.49583989</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>649.3481403999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1213</v>
+        <v>820.98754649</v>
       </c>
       <c r="C24" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D24" t="n">
-        <v>167</v>
+        <v>126.7100401</v>
       </c>
       <c r="E24" t="n">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="F24" t="n">
-        <v>970</v>
+        <v>654.4517269299999</v>
       </c>
       <c r="G24" t="n">
-        <v>20.3</v>
+        <v>23.2</v>
       </c>
       <c r="H24" t="n">
-        <v>1880</v>
+        <v>1241.7942005</v>
       </c>
       <c r="I24" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="J24" t="n">
-        <v>885</v>
+        <v>551.84516195</v>
       </c>
       <c r="K24" t="n">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
       <c r="L24" t="n">
-        <v>8538</v>
+        <v>5806</v>
       </c>
       <c r="M24" t="n">
-        <v>9.800000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="N24" t="n">
-        <v>540</v>
+        <v>362.6434434</v>
       </c>
       <c r="O24" t="n">
-        <v>15.2</v>
+        <v>18.2</v>
       </c>
       <c r="P24" t="n">
-        <v>476</v>
+        <v>368.49583989</v>
       </c>
       <c r="Q24" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1679.3481404</v>
+      </c>
+      <c r="S24" t="n">
         <v>7.5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2408</v>
-      </c>
-      <c r="S24" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="T24" t="n">
-        <v>392.01245351</v>
-      </c>
-      <c r="U24" t="n">
-        <v>40.2899599</v>
-      </c>
-      <c r="V24" t="n">
-        <v>315.5482730700001</v>
-      </c>
-      <c r="W24" t="n">
-        <v>638.2057995</v>
-      </c>
-      <c r="X24" t="n">
-        <v>333.15483805</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>2732</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>177.3565566</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>107.50416011</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>728.6518596000001</v>
       </c>
     </row>
     <row r="25">
@@ -2582,33 +1916,6 @@
       <c r="S25" t="n">
         <v>6.7</v>
       </c>
-      <c r="T25" t="n">
-        <v>477</v>
-      </c>
-      <c r="U25" t="n">
-        <v>51</v>
-      </c>
-      <c r="V25" t="n">
-        <v>270</v>
-      </c>
-      <c r="W25" t="n">
-        <v>781</v>
-      </c>
-      <c r="X25" t="n">
-        <v>417</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>3586</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>180</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>172</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1238</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2670,208 +1977,127 @@
       <c r="S26" t="n">
         <v>6.8</v>
       </c>
-      <c r="T26" t="n">
-        <v>486.0217315017</v>
-      </c>
-      <c r="U26" t="n">
-        <v>74.6477624405</v>
-      </c>
-      <c r="V26" t="n">
-        <v>350.7740323319</v>
-      </c>
-      <c r="W26" t="n">
-        <v>693.5698784817999</v>
-      </c>
-      <c r="X26" t="n">
-        <v>351.4584666793</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>3524.6354348914</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>210.1537481843</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>258.3210550258</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1099.688760246</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>902.960316049</v>
+        <v>1336.1080180199</v>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="D27" t="n">
-        <v>134.5127695382</v>
+        <v>183.7180837076</v>
       </c>
       <c r="E27" t="n">
-        <v>6.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>716.5933551094</v>
+        <v>1078.7845128531</v>
       </c>
       <c r="G27" t="n">
-        <v>9.5</v>
+        <v>11.3</v>
       </c>
       <c r="H27" t="n">
-        <v>1343.4514532574</v>
+        <v>2011.801697226</v>
       </c>
       <c r="I27" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>612.7275874127999</v>
+        <v>1015.9928153802</v>
       </c>
       <c r="K27" t="n">
-        <v>11</v>
+        <v>14.8</v>
       </c>
       <c r="L27" t="n">
-        <v>6310.3876011368</v>
+        <v>9353.1746842016</v>
       </c>
       <c r="M27" t="n">
-        <v>6.3600782779</v>
+        <v>6.7251461988</v>
       </c>
       <c r="N27" t="n">
-        <v>372.8057066095</v>
+        <v>555.1425808245</v>
       </c>
       <c r="O27" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P27" t="n">
-        <v>397.3438637074</v>
+        <v>515.4045683284</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="R27" t="n">
-        <v>1829.9925494531</v>
+        <v>2656.2224078619</v>
       </c>
       <c r="S27" t="n">
-        <v>9</v>
-      </c>
-      <c r="T27" t="n">
-        <v>416.9385845473</v>
-      </c>
-      <c r="U27" t="n">
-        <v>59.86500709769999</v>
-      </c>
-      <c r="V27" t="n">
-        <v>365.8193227775</v>
-      </c>
-      <c r="W27" t="n">
-        <v>649.8815747756001</v>
-      </c>
-      <c r="X27" t="n">
-        <v>261.2691207335</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>2785.7521662454</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>162.6519584252</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>139.0228086816</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>730.3037892071002</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1336.1080180199</v>
+        <v>902.960316049</v>
       </c>
       <c r="C28" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>183.7180837076</v>
+        <v>134.5127695382</v>
       </c>
       <c r="E28" t="n">
-        <v>9.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="F28" t="n">
-        <v>1078.7845128531</v>
+        <v>716.5933551094</v>
       </c>
       <c r="G28" t="n">
-        <v>11.3</v>
+        <v>9.5</v>
       </c>
       <c r="H28" t="n">
-        <v>2011.801697226</v>
+        <v>1343.4514532574</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>1015.9928153802</v>
+        <v>612.7275874127999</v>
       </c>
       <c r="K28" t="n">
-        <v>14.8</v>
+        <v>11</v>
       </c>
       <c r="L28" t="n">
-        <v>9353.1746842016</v>
+        <v>6310.3876011368</v>
       </c>
       <c r="M28" t="n">
-        <v>6.7251461988</v>
+        <v>6.3600782779</v>
       </c>
       <c r="N28" t="n">
-        <v>555.1425808245</v>
+        <v>372.8057066095</v>
       </c>
       <c r="O28" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P28" t="n">
-        <v>515.4045683284</v>
+        <v>397.3438637074</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="R28" t="n">
-        <v>2656.2224078619</v>
+        <v>1829.9925494531</v>
       </c>
       <c r="S28" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="T28" t="n">
-        <v>433.1477019709001</v>
-      </c>
-      <c r="U28" t="n">
-        <v>49.2053141694</v>
-      </c>
-      <c r="V28" t="n">
-        <v>362.1911577437</v>
-      </c>
-      <c r="W28" t="n">
-        <v>668.3502439685999</v>
-      </c>
-      <c r="X28" t="n">
-        <v>403.2652279674001</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>3042.7870830648</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>182.336874215</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>118.0607046210001</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>826.2298584088001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -2934,33 +2160,6 @@
       <c r="S29" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="T29" t="n">
-        <v>500.8919819800999</v>
-      </c>
-      <c r="U29" t="n">
-        <v>57.28191629240001</v>
-      </c>
-      <c r="V29" t="n">
-        <v>342.2154871468999</v>
-      </c>
-      <c r="W29" t="n">
-        <v>859.198302774</v>
-      </c>
-      <c r="X29" t="n">
-        <v>466.0071846198</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>3974.8253157984</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>208.8574191755</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>197.5954316716</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1341.7775921381</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -3022,208 +2221,127 @@
       <c r="S30" t="n">
         <v>9.5</v>
       </c>
-      <c r="T30" t="n">
-        <v>429</v>
-      </c>
-      <c r="U30" t="n">
-        <v>63</v>
-      </c>
-      <c r="V30" t="n">
-        <v>320</v>
-      </c>
-      <c r="W30" t="n">
-        <v>699</v>
-      </c>
-      <c r="X30" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>3334</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>229</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>1204</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>850</v>
+        <v>1314</v>
       </c>
       <c r="C31" t="n">
-        <v>-5.9</v>
+        <v>-1.7</v>
       </c>
       <c r="D31" t="n">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="E31" t="n">
-        <v>-14.6</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>639</v>
+        <v>1023</v>
       </c>
       <c r="G31" t="n">
-        <v>-10.8</v>
+        <v>-5.2</v>
       </c>
       <c r="H31" t="n">
-        <v>1401</v>
+        <v>2116</v>
       </c>
       <c r="I31" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="J31" t="n">
-        <v>404</v>
+        <v>770</v>
       </c>
       <c r="K31" t="n">
-        <v>-34</v>
+        <v>-24.2</v>
       </c>
       <c r="L31" t="n">
-        <v>6209</v>
+        <v>9430</v>
       </c>
       <c r="M31" t="n">
-        <v>-6</v>
+        <v>-3.2</v>
       </c>
       <c r="N31" t="n">
-        <v>361</v>
+        <v>552</v>
       </c>
       <c r="O31" t="n">
-        <v>-3.2</v>
+        <v>-0.5</v>
       </c>
       <c r="P31" t="n">
-        <v>366</v>
+        <v>491</v>
       </c>
       <c r="Q31" t="n">
-        <v>-8</v>
+        <v>-4.7</v>
       </c>
       <c r="R31" t="n">
-        <v>2074</v>
+        <v>2997</v>
       </c>
       <c r="S31" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="T31" t="n">
-        <v>421</v>
-      </c>
-      <c r="U31" t="n">
-        <v>52</v>
-      </c>
-      <c r="V31" t="n">
-        <v>319</v>
-      </c>
-      <c r="W31" t="n">
-        <v>702</v>
-      </c>
-      <c r="X31" t="n">
-        <v>204</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>2875</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>171</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>137</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>870</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1314</v>
+        <v>850</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.7</v>
+        <v>-5.9</v>
       </c>
       <c r="D32" t="n">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="E32" t="n">
-        <v>-9.300000000000001</v>
+        <v>-14.6</v>
       </c>
       <c r="F32" t="n">
-        <v>1023</v>
+        <v>639</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.2</v>
+        <v>-10.8</v>
       </c>
       <c r="H32" t="n">
-        <v>2116</v>
+        <v>1401</v>
       </c>
       <c r="I32" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="J32" t="n">
-        <v>770</v>
+        <v>404</v>
       </c>
       <c r="K32" t="n">
-        <v>-24.2</v>
+        <v>-34</v>
       </c>
       <c r="L32" t="n">
-        <v>9430</v>
+        <v>6209</v>
       </c>
       <c r="M32" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N32" t="n">
+        <v>361</v>
+      </c>
+      <c r="O32" t="n">
         <v>-3.2</v>
       </c>
-      <c r="N32" t="n">
-        <v>552</v>
-      </c>
-      <c r="O32" t="n">
-        <v>-0.5</v>
-      </c>
       <c r="P32" t="n">
-        <v>491</v>
+        <v>366</v>
       </c>
       <c r="Q32" t="n">
-        <v>-4.7</v>
+        <v>-8</v>
       </c>
       <c r="R32" t="n">
-        <v>2997</v>
+        <v>2074</v>
       </c>
       <c r="S32" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="T32" t="n">
-        <v>464</v>
-      </c>
-      <c r="U32" t="n">
-        <v>52</v>
-      </c>
-      <c r="V32" t="n">
-        <v>384</v>
-      </c>
-      <c r="W32" t="n">
-        <v>715</v>
-      </c>
-      <c r="X32" t="n">
-        <v>366</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>3221</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>191</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>125</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>923</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="33">
@@ -3286,33 +2404,6 @@
       <c r="S33" t="n">
         <v>12</v>
       </c>
-      <c r="T33" t="n">
-        <v>527</v>
-      </c>
-      <c r="U33" t="n">
-        <v>57</v>
-      </c>
-      <c r="V33" t="n">
-        <v>395</v>
-      </c>
-      <c r="W33" t="n">
-        <v>846</v>
-      </c>
-      <c r="X33" t="n">
-        <v>539</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>4283</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>216</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>222</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>1482</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -3374,208 +2465,127 @@
       <c r="S34" t="n">
         <v>20.5</v>
       </c>
-      <c r="T34" t="n">
-        <v>508</v>
-      </c>
-      <c r="U34" t="n">
-        <v>77</v>
-      </c>
-      <c r="V34" t="n">
-        <v>353</v>
-      </c>
-      <c r="W34" t="n">
-        <v>786</v>
-      </c>
-      <c r="X34" t="n">
-        <v>340</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>4039</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>239</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>284</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>1451</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1006</v>
+        <v>1540</v>
       </c>
       <c r="C35" t="n">
-        <v>18.4</v>
+        <v>17.3</v>
       </c>
       <c r="D35" t="n">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="E35" t="n">
-        <v>30.5</v>
+        <v>25.1</v>
       </c>
       <c r="F35" t="n">
-        <v>749</v>
+        <v>1171</v>
       </c>
       <c r="G35" t="n">
-        <v>17.1</v>
+        <v>14.4</v>
       </c>
       <c r="H35" t="n">
-        <v>1543</v>
+        <v>2328</v>
       </c>
       <c r="I35" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="J35" t="n">
-        <v>674</v>
+        <v>1131</v>
       </c>
       <c r="K35" t="n">
-        <v>66.8</v>
+        <v>47</v>
       </c>
       <c r="L35" t="n">
-        <v>7464</v>
+        <v>11179</v>
       </c>
       <c r="M35" t="n">
-        <v>19.7</v>
+        <v>18.1</v>
       </c>
       <c r="N35" t="n">
-        <v>436</v>
+        <v>660</v>
       </c>
       <c r="O35" t="n">
-        <v>20.8</v>
+        <v>19.4</v>
       </c>
       <c r="P35" t="n">
-        <v>461</v>
+        <v>615</v>
       </c>
       <c r="Q35" t="n">
-        <v>26.1</v>
+        <v>25.2</v>
       </c>
       <c r="R35" t="n">
-        <v>2446</v>
+        <v>3526</v>
       </c>
       <c r="S35" t="n">
-        <v>18</v>
-      </c>
-      <c r="T35" t="n">
-        <v>498</v>
-      </c>
-      <c r="U35" t="n">
-        <v>73</v>
-      </c>
-      <c r="V35" t="n">
-        <v>396</v>
-      </c>
-      <c r="W35" t="n">
-        <v>757</v>
-      </c>
-      <c r="X35" t="n">
-        <v>334</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>3425</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>197</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>177</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>995</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1540</v>
+        <v>1006</v>
       </c>
       <c r="C36" t="n">
-        <v>17.3</v>
+        <v>18.4</v>
       </c>
       <c r="D36" t="n">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="E36" t="n">
-        <v>25.1</v>
+        <v>30.5</v>
       </c>
       <c r="F36" t="n">
-        <v>1171</v>
+        <v>749</v>
       </c>
       <c r="G36" t="n">
-        <v>14.4</v>
+        <v>17.1</v>
       </c>
       <c r="H36" t="n">
-        <v>2328</v>
+        <v>1543</v>
       </c>
       <c r="I36" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="J36" t="n">
-        <v>1131</v>
+        <v>674</v>
       </c>
       <c r="K36" t="n">
-        <v>47</v>
+        <v>66.8</v>
       </c>
       <c r="L36" t="n">
-        <v>11179</v>
+        <v>7464</v>
       </c>
       <c r="M36" t="n">
-        <v>18.1</v>
+        <v>19.7</v>
       </c>
       <c r="N36" t="n">
-        <v>660</v>
+        <v>436</v>
       </c>
       <c r="O36" t="n">
-        <v>19.4</v>
+        <v>20.8</v>
       </c>
       <c r="P36" t="n">
-        <v>615</v>
+        <v>461</v>
       </c>
       <c r="Q36" t="n">
-        <v>25.2</v>
+        <v>26.1</v>
       </c>
       <c r="R36" t="n">
-        <v>3526</v>
+        <v>2446</v>
       </c>
       <c r="S36" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="T36" t="n">
-        <v>534</v>
-      </c>
-      <c r="U36" t="n">
-        <v>59</v>
-      </c>
-      <c r="V36" t="n">
-        <v>422</v>
-      </c>
-      <c r="W36" t="n">
-        <v>785</v>
-      </c>
-      <c r="X36" t="n">
-        <v>457</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>3715</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>224</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>154</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>1080</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3587,23 +2597,33 @@
       <c r="B37" t="n">
         <v>2131.83</v>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>15.8234452221</v>
+      </c>
       <c r="D37" t="n">
         <v>283.78</v>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>26.481959745</v>
+      </c>
       <c r="F37" t="n">
         <v>1579.62</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>11.4362313685</v>
+      </c>
       <c r="H37" t="n">
         <v>3314.73</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>11.8926685881</v>
+      </c>
       <c r="J37" t="n">
         <v>1645.49</v>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>25.7302110121</v>
+      </c>
       <c r="L37" t="n">
         <v>15915.55</v>
       </c>
@@ -3613,41 +2633,20 @@
       <c r="N37" t="n">
         <v>900.47</v>
       </c>
-      <c r="O37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>17.322825116</v>
+      </c>
       <c r="P37" t="n">
         <v>859.46</v>
       </c>
-      <c r="Q37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>20.5730062009</v>
+      </c>
       <c r="R37" t="n">
         <v>5200.19</v>
       </c>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="n">
-        <v>591.8299999999999</v>
-      </c>
-      <c r="U37" t="n">
-        <v>74.77999999999997</v>
-      </c>
-      <c r="V37" t="n">
-        <v>408.6199999999999</v>
-      </c>
-      <c r="W37" t="n">
-        <v>986.73</v>
-      </c>
-      <c r="X37" t="n">
-        <v>514.49</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>4736.549999999999</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>240.47</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>244.46</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>1674.19</v>
+      <c r="S37" t="n">
+        <v>16.0906376418</v>
       </c>
     </row>
   </sheetData>
